--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/ELAND_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:1_{20793258-A91E-4FC4-9A47-1D0DDB129A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1736A4A6-9483-44C0-8EF6-9832447479AD}"/>
   <bookViews>
-    <workbookView xWindow="11616" yWindow="2244" windowWidth="34320" windowHeight="15288" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="Demand" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,13 +42,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{883F3F3E-52AC-4182-99FF-FF97F19B73F8}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{AA7AB276-025A-44A9-9D78-5D089C2FB040}">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{AC852C4D-62E1-46B7-93E3-1A53D5349DED}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{FF9B4920-14A3-4070-A1B2-78FA5C2510AD}">
+    <comment ref="K6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,13 +240,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{54990CEA-F4F0-45D9-9B03-80195AEAE8E9}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{69DE8243-941B-4A16-98FE-3695051F9DBF}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{A681C4EF-DB98-4ADB-A493-4D0D67EDAB80}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,12 +434,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,12 +478,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{6E49767A-F5CB-4932-B130-15226B45B1B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,12 +1032,30 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>MIN_COAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic mining of hard </t>
+  </si>
+  <si>
+    <t>EX_PP_NAT_COAL</t>
+  </si>
+  <si>
+    <t>Power Plant - Hard Coal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -1237,7 +1254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1305,34 +1322,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1553,47 +1542,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1717,6 +1665,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1724,7 +1722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1759,202 +1757,203 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
-    <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 39 2 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1990,7 +1989,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{665B82F7-18FF-16D2-A931-F73F8CA6ECBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2033,7 @@
         <xdr:cNvPr id="3" name="Obraz 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45B34A64-DC08-B513-CBD4-63A011CA7525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2068,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2080,7 +2079,7 @@
             <xdr:cNvPr id="2" name="pole tekstowe 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80CA36CD-760E-A26D-3AA8-30C903E25282}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2280,7 +2279,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -2291,7 +2290,7 @@
             <xdr:cNvPr id="3" name="pole tekstowe 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0136188B-620E-B1A7-2E89-612DFC6481A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3069,44 +3068,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>86</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3324,16 +3323,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
@@ -3345,14 +3344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3360,30 +3359,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N21" sqref="N20:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3396,38 +3395,38 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -3451,196 +3450,219 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="47" t="s">
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="116"/>
+      <c r="E8" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="117"/>
+      <c r="I8" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="101" t="s">
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="111" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D16" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="113"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="105" t="s">
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D17" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="106"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="107" t="s">
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D18" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="108"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="105" t="s">
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D19" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="106"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="107" t="s">
+      <c r="E19" s="101"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D20" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="108"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="109" t="s">
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D21" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="110"/>
+      <c r="E21" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3648,377 +3670,427 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H14" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="101" t="s">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D20" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="104"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="114" t="s">
+      <c r="E20" s="107"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D21" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="115"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="107" t="s">
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="116" t="s">
+      <c r="D22" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="116"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="105" t="s">
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D23" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="117"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="107" t="s">
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D24" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="116"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="105" t="s">
+      <c r="E24" s="108"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D25" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="117"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="107" t="s">
+      <c r="E25" s="109"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D26" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="105" t="s">
+      <c r="E26" s="108"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D27" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="117"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="107" t="s">
+      <c r="E27" s="109"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D28" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="116"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="109" t="s">
+      <c r="E28" s="108"/>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D29" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="118"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="E29" s="105"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4026,56 +4098,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4087,14 +4159,14 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4106,29 +4178,29 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="64" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
@@ -4141,39 +4213,57 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="G9" s="65">
         <v>30</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="66" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="67" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="67" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="67"/>
+      <c r="G10" s="68">
         <v>20</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="67" t="str">
+        <f>FI_Process!E11</f>
+        <v>MIN_COAL</v>
+      </c>
+      <c r="D11" s="67" t="str">
+        <f>FI_Process!F11</f>
+        <v xml:space="preserve">Domestic mining of hard </v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f>FI_Comm!E11</f>
+        <v>COAL</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4183,33 +4273,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>118</v>
       </c>
@@ -4217,42 +4307,42 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4279,17 +4369,17 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="32"/>
       <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4316,10 +4406,10 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="32"/>
       <c r="O7" s="10" t="s">
         <v>131</v>
       </c>
@@ -4327,9 +4417,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="72" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="15"/>
@@ -4350,25 +4440,25 @@
       <c r="K8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="M8" s="32"/>
+      <c r="O8" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="78" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="64" t="str">
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4394,110 +4484,140 @@
       <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="65">
         <v>1</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="M9" s="32"/>
+      <c r="O9" s="77">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="77">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="66" t="str">
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+      <c r="D10" s="67" t="str">
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="67" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="F10" s="67" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="67">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="67">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="67">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="67">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="67">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="68">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="M10" s="32"/>
+      <c r="O10" s="90">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="90">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="67" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_NAT_COAL</v>
+      </c>
+      <c r="D11" s="67" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Plant - Hard Coal</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f>FI_Comm!E11</f>
+        <v>COAL</v>
+      </c>
+      <c r="F11" s="67" t="str">
+        <f>FI_Comm!E11</f>
+        <v>COAL</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="32"/>
-      <c r="O11" s="100">
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="O12" s="91">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4506,103 +4626,103 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="79">
         <v>2023</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="88"/>
+      <c r="E8" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="74" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="75">
         <v>100</v>
       </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4610,12 +4730,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4814,20 +4936,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4852,12 +4975,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1932,6 +1932,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3363,7 +3364,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N20:N21"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,56 +3458,56 @@
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="K7" s="115" t="s">
         <v>60</v>
       </c>
       <c r="L7" s="32"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="117" t="s">
+      <c r="G8" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="119"/>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,31 +4458,31 @@
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="111" t="str">
         <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="111" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="111" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="111">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="111">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="111">
         <v>0.4</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="111">
         <v>0.8</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="111">
         <v>1</v>
       </c>
       <c r="L9" s="65">
@@ -4545,7 +4546,7 @@
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
-      <c r="C11" s="67" t="str">
+      <c r="C11" s="66" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_NAT_COAL</v>
       </c>
@@ -4558,20 +4559,30 @@
         <v>COAL</v>
       </c>
       <c r="F11" s="67" t="str">
-        <f>FI_Comm!E11</f>
-        <v>COAL</v>
-      </c>
-      <c r="G11" s="67"/>
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G11" s="67">
+        <v>2</v>
+      </c>
       <c r="H11" s="67">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
+      <c r="I11" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="67">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68">
+        <v>1</v>
+      </c>
       <c r="M11" s="32"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -17,9 +17,10 @@
     <sheet name="RES View" sheetId="12" r:id="rId3"/>
     <sheet name="FI_Comm" sheetId="1" r:id="rId4"/>
     <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
-    <sheet name="Supply" sheetId="3" r:id="rId6"/>
-    <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="GRID" sheetId="13" r:id="rId6"/>
+    <sheet name="Supply" sheetId="3" r:id="rId7"/>
+    <sheet name="Power Plants" sheetId="8" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -439,7 +440,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -521,8 +522,52 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1050,6 +1095,27 @@
   </si>
   <si>
     <t>Power Plant - Hard Coal</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>\I: Transmission</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Transmission and distribution</t>
+  </si>
+  <si>
+    <t>hv_DEMAND</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1500,37 +1566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
       <right style="hair">
         <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1679,17 +1719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
@@ -1715,6 +1744,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1722,7 +1856,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1742,7 +1876,6 @@
     <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1757,14 +1890,10 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1790,21 +1919,12 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1814,25 +1934,26 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1845,17 +1966,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,59 +1986,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,7 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1945,11 +2066,44 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1"/>
@@ -3092,16 +3246,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
@@ -3361,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,272 +3552,297 @@
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="31"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="32"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="112" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="32"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="116" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118" t="s">
+      <c r="D8" s="119"/>
+      <c r="E8" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="32"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="32"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="123"/>
+      <c r="I10" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="46" t="s">
+      <c r="J10" s="123"/>
+      <c r="K10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="49" t="s">
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="120"/>
+      <c r="E11" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="120"/>
+      <c r="I11" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="102" t="s">
+      <c r="J11" s="120"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="96" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D17" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="104"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="93" t="s">
+      <c r="E17" s="97"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D18" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="101"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="94" t="s">
+      <c r="E18" s="94"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D19" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="100"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="93" t="s">
+      <c r="E19" s="93"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D20" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="101"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="94" t="s">
+      <c r="E20" s="94"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D21" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="E21" s="93"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D22" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E22" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3672,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:N32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:K22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,409 +3868,451 @@
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="31"/>
-    </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="36" t="s">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="2:14" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="39" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="41" t="s">
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="2:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="43" t="s">
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="45" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="47" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="47" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="43" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="45" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="49" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="67" t="s">
+      <c r="J14" s="120"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="50" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="102" t="s">
+      <c r="J15" s="17"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="29"/>
+      <c r="N15" s="131"/>
+    </row>
+    <row r="16" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="29"/>
+      <c r="N16" s="112"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="129" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="124"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-    </row>
-    <row r="20" spans="3:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="22" t="s">
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+    </row>
+    <row r="22" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D22" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="107"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="97" t="s">
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D23" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="94" t="s">
+      <c r="E23" s="103"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D24" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="108"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="93" t="s">
+      <c r="E24" s="101"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D25" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="109"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="94" t="s">
+      <c r="E25" s="102"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D26" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="108"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="93" t="s">
+      <c r="E26" s="101"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D27" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="109"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="94" t="s">
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="108" t="s">
+      <c r="D28" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="108"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="93" t="s">
+      <c r="E28" s="101"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D29" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="109"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="94" t="s">
+      <c r="E29" s="102"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D30" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="108"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="95" t="s">
+      <c r="E30" s="101"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D31" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="105"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="E31" s="98"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4100,10 +4321,116 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="67" t="str">
+        <f>FI_Process!E17</f>
+        <v>GRID</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>FI_Process!F17</f>
+        <v>Transmission and distribution</v>
+      </c>
+      <c r="E7" s="12" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="68">
+        <f>133/157</f>
+        <v>0.84713375796178347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,144 +4454,144 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="57" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="32"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="64" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="57" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="104" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="104" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="65">
+      <c r="F9" s="104"/>
+      <c r="G9" s="58">
         <v>30</v>
       </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="66" t="str">
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="114" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="67" t="str">
+      <c r="D10" s="109" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="67" t="str">
+      <c r="E10" s="109" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68">
+      <c r="F10" s="109"/>
+      <c r="G10" s="111">
         <v>20</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="67" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_COAL</v>
       </c>
-      <c r="D11" s="67" t="str">
+      <c r="D11" s="12" t="str">
         <f>FI_Process!F11</f>
         <v xml:space="preserve">Domestic mining of hard </v>
       </c>
-      <c r="E11" s="67" t="str">
+      <c r="E11" s="12" t="str">
         <f>FI_Comm!E11</f>
         <v>COAL</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="32"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4273,12 +4600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,105 +4639,105 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="31"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="57" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="32"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="29"/>
       <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="29"/>
       <c r="O7" s="10" t="s">
         <v>131</v>
       </c>
@@ -4419,185 +4746,185 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="73" t="s">
+      <c r="L8" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="O8" s="78" t="s">
+      <c r="M8" s="29"/>
+      <c r="O8" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="78" t="s">
+      <c r="P8" s="71" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="64" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="57" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
-      <c r="D9" s="111" t="str">
+      <c r="D9" s="104" t="str">
         <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
-      <c r="E9" s="111" t="str">
+      <c r="E9" s="104" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="111" t="str">
+      <c r="F9" s="104" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="104">
         <v>4</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="104">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="104">
         <v>0.4</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="104">
         <v>0.8</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="104">
         <v>1</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="58">
         <v>1</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="O9" s="77">
+      <c r="M9" s="29"/>
+      <c r="O9" s="70">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="77">
+      <c r="P9" s="70">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="66" t="str">
+      <c r="B10" s="24"/>
+      <c r="C10" s="59" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="67" t="str">
+      <c r="D10" s="60" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="67" t="str">
+      <c r="E10" s="60" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="60" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="60">
         <v>2</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="60">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="60">
         <v>0.6</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="60">
         <v>0.5</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="60">
         <v>1</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="61">
         <v>1</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="O10" s="90">
+      <c r="M10" s="29"/>
+      <c r="O10" s="83">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="90">
+      <c r="P10" s="83">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="66" t="str">
+      <c r="B11" s="24"/>
+      <c r="C11" s="59" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_NAT_COAL</v>
       </c>
-      <c r="D11" s="67" t="str">
+      <c r="D11" s="60" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Hard Coal</v>
       </c>
-      <c r="E11" s="67" t="str">
+      <c r="E11" s="60" t="str">
         <f>FI_Comm!E11</f>
         <v>COAL</v>
       </c>
-      <c r="F11" s="67" t="str">
+      <c r="F11" s="60" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="60">
         <v>2</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="60">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="60">
         <v>0.6</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="60">
         <v>0.5</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="60">
         <v>1</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="61">
         <v>1</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
+      <c r="M11" s="29"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="O12" s="91">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
+      <c r="O12" s="84">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
@@ -4636,11 +4963,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4652,88 +4981,95 @@
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="82" t="s">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="76"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="80" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="72">
         <v>2023</v>
       </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="84" t="s">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="87" t="s">
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="74" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="F8" s="29"/>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="67" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="68">
+        <f>H9*GRID!I7</f>
+        <v>84.713375796178354</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -4321,16 +4321,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I7"/>
+  <dimension ref="C3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="132" t="s">
         <v>24</v>
       </c>
@@ -4344,16 +4344,13 @@
         <v>44</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="H4" s="134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="C5" s="53" t="s">
         <v>45</v>
       </c>
@@ -4367,16 +4364,13 @@
         <v>46</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="H5" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="65" t="s">
         <v>52</v>
       </c>
@@ -4384,16 +4378,13 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="H6" s="66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="67" t="str">
         <f>FI_Process!E17</f>
         <v>GRID</v>
@@ -4410,11 +4401,10 @@
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="68">
+      <c r="H7" s="68">
         <f>133/157</f>
         <v>0.84713375796178347</v>
       </c>
@@ -4429,7 +4419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -4968,7 +4958,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,7 +5046,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="68">
-        <f>H9*GRID!I7</f>
+        <f>H9*GRID!H7</f>
         <v>84.713375796178354</v>
       </c>
       <c r="F9" s="29"/>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -4324,12 +4324,16 @@
   <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="4" spans="3:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="132" t="s">
         <v>24</v>
@@ -4420,7 +4424,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
